--- a/PANAMÁ/Delitos/Protección infantil y género Unicef 2019 Panamá.xlsx
+++ b/PANAMÁ/Delitos/Protección infantil y género Unicef 2019 Panamá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEF971F-B2A4-4D37-97A1-CF8ACC1BF166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2B00F3-7704-46B0-8430-0E79118D1288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8B859529-1372-45A7-8F7A-15D081915221}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <r>
       <t>Matrimonio infantil (%)</t>
@@ -464,12 +464,6 @@
     <t>Matrimonio infantil (%)+ 2012–2018*</t>
   </si>
   <si>
-    <t>Mujeres casadas a los 15</t>
-  </si>
-  <si>
-    <t>Hombres casados a los 18</t>
-  </si>
-  <si>
     <t>Justificación del maltrato a la esposa entre los adolescentes (%)+  2012–2018*</t>
   </si>
   <si>
@@ -480,6 +474,21 @@
   </si>
   <si>
     <t>Violencia sexual en la infancia (%) 2012–2018*</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> casadas a los 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> casados a los 18</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>2012–2018*</t>
   </si>
 </sst>
 </file>
@@ -564,7 +573,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -589,9 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,12 +607,12 @@
     <cellStyle name="Normal_review on CRING-07 CP dates and source CC (29 May 2007)" xfId="2" xr:uid="{7D3B586B-7DAC-4751-B992-1ADEB068F304}"/>
     <cellStyle name="Normal_Table 9 Child protection SOWC 2005" xfId="1" xr:uid="{C0E7EAF6-59C1-44D1-AC08-216CAF5DDC1C}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -616,6 +622,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,11 +643,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1D300DD-9F8B-4170-B425-82B8CEDD1F1C}" name="Tabla1" displayName="Tabla1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:C8" xr:uid="{F8AD7167-B67D-431A-AB31-12B1C7931ECD}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1D300DD-9F8B-4170-B425-82B8CEDD1F1C}" name="Tabla1" displayName="Tabla1" ref="A1:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E8" xr:uid="{F8AD7167-B67D-431A-AB31-12B1C7931ECD}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{02FD4E3E-2CB8-4DD4-80BC-CBE4C146F424}" name="Categoría" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{F51FC61F-E049-4FC0-8836-0B02510ACFBB}" name="Variable" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F51FC61F-E049-4FC0-8836-0B02510ACFBB}" name="Sexo" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1A330DA7-358A-4A38-978C-BFA61E6FD8CF}" name="Variable" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{DE6F3843-A365-4480-9A5C-F53604F8E335}" name="Fecha" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DCA7BB8D-9744-485B-9E7B-66ED95F8E629}" name="Cantidad" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1000,102 +1014,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5270623-E11E-4A5E-B958-036C5513C053}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="2" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="12">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="11">
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="12">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="11">
         <v>26.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="11">
         <v>3.4</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PANAMÁ/Delitos/Protección infantil y género Unicef 2019 Panamá.xlsx
+++ b/PANAMÁ/Delitos/Protección infantil y género Unicef 2019 Panamá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2B00F3-7704-46B0-8430-0E79118D1288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144876E7-A1CA-4540-91B2-263D4A746229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8B859529-1372-45A7-8F7A-15D081915221}"/>
   </bookViews>
@@ -609,13 +609,13 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -648,9 +648,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{02FD4E3E-2CB8-4DD4-80BC-CBE4C146F424}" name="Categoría" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{F51FC61F-E049-4FC0-8836-0B02510ACFBB}" name="Sexo" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{1A330DA7-358A-4A38-978C-BFA61E6FD8CF}" name="Variable" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{DE6F3843-A365-4480-9A5C-F53604F8E335}" name="Fecha" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{DCA7BB8D-9744-485B-9E7B-66ED95F8E629}" name="Cantidad" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{1A330DA7-358A-4A38-978C-BFA61E6FD8CF}" name="Variable" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DE6F3843-A365-4480-9A5C-F53604F8E335}" name="Fecha" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DCA7BB8D-9744-485B-9E7B-66ED95F8E629}" name="Cantidad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5270623-E11E-4A5E-B958-036C5513C053}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
